--- a/data/long_bre/P24_6-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_6-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,7 +631,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -609,27 +641,47 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,82%</t>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,15%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-7,44%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-20,87%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 8,86</t>
+          <t>-4,34; 8,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 6,69</t>
+          <t>-8,22; 5,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 3,16</t>
+          <t>-8,89; 4,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 42,71</t>
+          <t>-2,86; 10,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 32,22</t>
+          <t>-12,88; 1,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,33; 12,52</t>
+          <t>-15,85; 39,53</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-27,15; 25,13</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-26,74; 15,43</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 54,76</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-37,62; 4,83</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,35</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,58%</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>-12,73%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10,93%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14,27%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 2,52</t>
+          <t>-13,36; 0,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 11,79</t>
+          <t>-2,57; 11,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 12,82</t>
+          <t>-0,45; 12,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 5,63</t>
+          <t>-7,43; 9,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 32,9</t>
+          <t>-7,2; 8,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 35,37</t>
+          <t>-24,27; 0,38</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 29,69</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 34,57</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-16,16; 28,69</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-14,38; 19,1</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-14,52%</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,96%</t>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-10,41%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-12,01%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-12,95%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 8,89</t>
+          <t>-2,65; 9,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 1,71</t>
+          <t>-11,83; 2,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 2,26</t>
+          <t>-9,21; 1,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 41,84</t>
+          <t>-16,39; 2,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 5,15</t>
+          <t>-1,26; 12,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,81; 9,03</t>
+          <t>-10,11; 44,99</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-29,3; 8,9</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-27,44; 6,99</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-36,86; 9,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 60,92</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 7,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 8,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 5,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 28,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 49,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 21,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>-5,88%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,94%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-28,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-9,99%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 7,57</t>
+          <t>-9,82; 5,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 16,63</t>
+          <t>-5,08; 8,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 13,28</t>
+          <t>-8,37; 5,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 19,27</t>
+          <t>-17,12; -1,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 45,73</t>
+          <t>-26,81; 10,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 39,46</t>
+          <t>-25,65; 18,11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-21,64; 48,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-24,53; 21,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-46,28; -4,0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-57,61; 49,92</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>12,13</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-26,04%</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,06%</t>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17,05%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16,56%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>34,45%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>33,45%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,25</t>
+          <t>-4,62; 10,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,43; -1,97</t>
+          <t>-1,09; 16,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 2,44</t>
+          <t>-1,27; 12,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 32,38</t>
+          <t>3,26; 19,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,19; -5,16</t>
+          <t>-1,22; 28,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 9,16</t>
+          <t>-9,77; 26,89</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 44,64</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 37,51</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8,01; 64,06</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 102,23</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-9,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,76%</t>
+          <t>-9,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>-2,23%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-24,69%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-14,62%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-8,88%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-30,09%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 14,8</t>
+          <t>-7,06; 5,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 10,96</t>
+          <t>-18,04; -1,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 21,55</t>
+          <t>-11,73; 1,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-38,32; 82,62</t>
+          <t>-10,63; 5,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-45,29; 61,44</t>
+          <t>-22,26; 7,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 138,37</t>
+          <t>-26,24; 27,51</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-41,75; -5,69</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-30,82; 3,83</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-28,91; 17,73</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-58,14; 34,38</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-17,51%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 7,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 16,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 14,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,72; 18,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 48,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 38,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8,22</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-32,65%</t>
+          <t>-14,1%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,8%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>49,78%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>71,99%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 22,42</t>
+          <t>-15,77; 8,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 14,72</t>
+          <t>-12,99; 12,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 0,98</t>
+          <t>0,01; 21,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 130,51</t>
+          <t>-3,13; 26,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-36,24; 63,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-56,26; 5,43</t>
+          <t>-44,24; 42,02</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-42,04; 73,76</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 138,67</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-14,36; 276,46</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>-9,32%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 6,5</t>
+          <t>-23,08; 9,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 5,38</t>
+          <t>-18,99; 15,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,63</t>
+          <t>-12,13; 15,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 24,95</t>
+          <t>-13,26; 24,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 26,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 13,91</t>
+          <t>-40,5; 24,81</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-33,77; 40,88</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-23,75; 42,55</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-24,57; 86,55</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>-12,55</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>-17,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>34,85%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-34,37%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-43,72%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 0,63</t>
+          <t>-6,46; 20,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,46; 10,6</t>
+          <t>-13,02; 16,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,59; 10,2</t>
+          <t>-26,97; -0,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 1,4</t>
+          <t>-41,37; -1,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,08; 27,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,41; 27,79</t>
+          <t>-20,69; 117,37</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-36,17; 70,33</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-60,14; -1,79</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-72,41; -4,02</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-17,28%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-14,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,539 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 6,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-11,58; -1,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -0,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 29,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-29,56; -3,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,41; -2,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-5,57</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-1,0%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-1,72%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-18,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 4,3</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 4,69</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 3,93</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 4,5</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-12,84; 0,69</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-14,73; 16,45</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-17,01; 22,06</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-15,74; 15,47</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-19,57; 19,08</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-36,45; 3,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-2,62</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>4,99</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>5,55</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>5,89</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-5,53%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>11,9%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>14,11%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>15,33%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-7,49; 2,67</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 10,3</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 10,44</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 12,01</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; 10,85</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; 6,11</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 26,54</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 28,4</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 35,3</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-8,29; 28,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-5,26</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-5,26</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-5,43</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-15,03%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-16,3%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-15,6%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>9,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 6,8</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-10,28; -0,24</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-9,61; -1,07</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-12,94; -0,45</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 8,86</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 32,63</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-27,48; -0,77</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-27,45; -3,75</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-31,64; -0,94</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-13,39; 40,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_6-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_6-Urba-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1434,7 +1434,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1536,7 +1536,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1756,7 +1756,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1870,7 +1870,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
